--- a/Devops Commands.xlsx
+++ b/Devops Commands.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1A6C5-1262-4A6A-B79C-EB60DEDBD074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFDE002-4F95-4EA4-98B0-21AC0D30F20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{17903FFA-095F-4719-859A-9B63398CF432}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{17903FFA-095F-4719-859A-9B63398CF432}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux Shell" sheetId="1" r:id="rId1"/>
     <sheet name="Linux Shell V2" sheetId="4" r:id="rId2"/>
     <sheet name="AWS CLI" sheetId="2" r:id="rId3"/>
     <sheet name="Git" sheetId="3" r:id="rId4"/>
-    <sheet name="Ansible" sheetId="5" r:id="rId5"/>
+    <sheet name="YAML &amp; Ansible" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="255">
   <si>
     <t>ls</t>
   </si>
@@ -1653,6 +1653,75 @@
     </r>
   </si>
   <si>
+    <t>scp -i vm2.pem devops-key.pub ubuntu@10.2.2.2:/tmp/</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>SSH into VM2 using it .pem file</t>
+  </si>
+  <si>
+    <t>ssh -i vm2.pem ubuntu@10.2.2.2</t>
+  </si>
+  <si>
+    <t>Now you are into VM2</t>
+  </si>
+  <si>
+    <t>Copy the public key content</t>
+  </si>
+  <si>
+    <t>cat /tmp/devops-key.pub &gt;&gt; ~/.ssh/authorized_keys</t>
+  </si>
+  <si>
+    <t>This will append the public key content to VM2's authorized_keys file</t>
+  </si>
+  <si>
+    <t>Exit from VM2</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>SSH into VM2 using new private key</t>
+  </si>
+  <si>
+    <t>This will make VM1 ssh into VM2 using new private key, not .pem file</t>
+  </si>
+  <si>
+    <t>Below steps will skip using private key by doing SSH Agent forwarding</t>
+  </si>
+  <si>
+    <t>eval "$(ssh-agent -s)"</t>
+  </si>
+  <si>
+    <t>Start ssh agent</t>
+  </si>
+  <si>
+    <t>This starts the ssh agent in background and sets environment variables</t>
+  </si>
+  <si>
+    <t>ssh-add ~/.ssh/devops-key</t>
+  </si>
+  <si>
+    <t>Add the private key to SSH agent</t>
+  </si>
+  <si>
+    <t>Final step</t>
+  </si>
+  <si>
+    <t>ssh -i devops_key ubuntu@10.2.2.2</t>
+  </si>
+  <si>
+    <t>ssh -i ubuntu@10.2.2.2</t>
+  </si>
+  <si>
+    <t>This command will ssh into VM2 without using the private key</t>
+  </si>
+  <si>
+    <t>Ansible adhoc command syntax</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1704,7 +1773,7 @@
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFEE0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1713,77 +1782,368 @@
     </r>
   </si>
   <si>
-    <t>scp -i vm2.pem devops-key.pub ubuntu@10.2.2.2:/tmp/</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>SSH into VM2 using it .pem file</t>
-  </si>
-  <si>
-    <t>ssh -i vm2.pem ubuntu@10.2.2.2</t>
-  </si>
-  <si>
-    <t>Now you are into VM2</t>
-  </si>
-  <si>
-    <t>Copy the public key content</t>
-  </si>
-  <si>
-    <t>cat /tmp/devops-key.pub &gt;&gt; ~/.ssh/authorized_keys</t>
-  </si>
-  <si>
-    <t>This will append the public key content to VM2's authorized_keys file</t>
-  </si>
-  <si>
-    <t>Exit from VM2</t>
-  </si>
-  <si>
-    <t>exit</t>
-  </si>
-  <si>
-    <t>SSH into VM2 using new private key</t>
-  </si>
-  <si>
-    <t>This will make VM1 ssh into VM2 using new private key, not .pem file</t>
-  </si>
-  <si>
-    <t>Below steps will skip using private key by doing SSH Agent forwarding</t>
-  </si>
-  <si>
-    <t>eval "$(ssh-agent -s)"</t>
-  </si>
-  <si>
-    <t>Start ssh agent</t>
-  </si>
-  <si>
-    <t>This starts the ssh agent in background and sets environment variables</t>
-  </si>
-  <si>
-    <t>ssh-add ~/.ssh/devops-key</t>
-  </si>
-  <si>
-    <t>Add the private key to SSH agent</t>
-  </si>
-  <si>
-    <t>Final step</t>
-  </si>
-  <si>
-    <t>ssh -i devops_key ubuntu@10.2.2.2</t>
-  </si>
-  <si>
-    <t>ssh -i ubuntu@10.2.2.2</t>
-  </si>
-  <si>
-    <t>This command will ssh into VM2 without using the private key</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ansible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inventory.ini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"apt install niginx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  file name to use i.e. inventory.ini
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  module name i.e. shell, apt, ping etc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   &gt;&gt;   arguments or commands
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  process on all users
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  become. It tells ansible to run the task as sudo user with privileges</t>
+    </r>
+  </si>
+  <si>
+    <t>YAML</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key-Value Pair	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name: Install NGINX	</t>
+  </si>
+  <si>
+    <t>Its like a variable or setting</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>A list of items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictionary (Map)	</t>
+  </si>
+  <si>
+    <t>A group of key-value pairs</t>
+  </si>
+  <si>
+    <t>Nested structure</t>
+  </si>
+  <si>
+    <t>key → value → sub-values</t>
+  </si>
+  <si>
+    <t>Scalar</t>
+  </si>
+  <si>
+    <t>"Hello" / 42 / true</t>
+  </si>
+  <si>
+    <t>Basic values (string, number, bool)</t>
+  </si>
+  <si>
+    <t>Anchor (&amp;) and Alias (*)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allows you to re-use blocks of YAML
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. &amp;web_defaults creates an anchor
+2. *web_defaults reuses that dictionary in other places using alias</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,7 +2239,29 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color rgb="FFEE0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFEE0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1941,7 +2323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2066,11 +2448,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2151,6 +2570,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2172,30 +2619,32 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2217,6 +2666,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1895480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2981330</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>638391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34C7397-B60B-B3E3-FF2C-E0F3984344D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4052893" y="3824286"/>
+          <a:ext cx="1085850" cy="605055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1709743</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3290893</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>551186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A3167E-68ED-50B2-B47E-76FB8A519930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867156" y="4500562"/>
+          <a:ext cx="1581150" cy="513087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1166812</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3676650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1398056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE700D61-906B-BE28-8768-43B8CFA039ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="5200649"/>
+          <a:ext cx="2509838" cy="1359957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3381656</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2066924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DC1A60-C87F-7EEB-BB94-E41528F91E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3290888" y="6691312"/>
+          <a:ext cx="2248181" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2518,7 +3148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE990C4B-3E94-4796-8BC6-D81EF05678C5}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2541,11 +3171,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
@@ -2960,11 +3590,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
@@ -3026,13 +3656,13 @@
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
@@ -3119,11 +3749,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27"/>
@@ -3131,11 +3761,11 @@
       <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
@@ -3172,11 +3802,11 @@
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="26" t="s">
@@ -3278,11 +3908,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
@@ -3321,11 +3951,11 @@
       <c r="C6" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
@@ -3367,7 +3997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC4F5D-B820-44BA-86C7-D02427542BE0}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3645,10 +4275,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF488BB-F33B-465B-9A85-E4575B1FF101}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3658,45 +4288,45 @@
     <col min="3" max="3" width="70.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" s="38" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="32" t="s">
         <v>206</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3707,8 +4337,8 @@
       <c r="A5" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>212</v>
+      <c r="B5" s="32" t="s">
+        <v>211</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>210</v>
@@ -3716,84 +4346,84 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="C7" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>220</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>221</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="49" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="43" t="s">
         <v>228</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="C14" s="6"/>
       <c r="M14" t="s">
@@ -3802,13 +4432,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="M15" t="s">
         <v>195</v>
@@ -3819,22 +4449,120 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="M17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M18" t="s">
+    <row r="18" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="31" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="31" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="31" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="31" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="M26" t="s">
         <v>198</v>
       </c>
     </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+    </row>
+    <row r="28" spans="1:13" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Devops Commands.xlsx
+++ b/Devops Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFDE002-4F95-4EA4-98B0-21AC0D30F20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89333225-0ED0-4A4D-8E50-010BD9623A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{17903FFA-095F-4719-859A-9B63398CF432}"/>
   </bookViews>
@@ -4277,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF488BB-F33B-465B-9A85-E4575B1FF101}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Devops Commands.xlsx
+++ b/Devops Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89333225-0ED0-4A4D-8E50-010BD9623A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CE53F6-E7D6-4C40-B85C-0E0052922CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{17903FFA-095F-4719-859A-9B63398CF432}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="257">
   <si>
     <t>ls</t>
   </si>
@@ -2136,6 +2136,144 @@
       </rPr>
       <t>1. &amp;web_defaults creates an anchor
 2. *web_defaults reuses that dictionary in other places using alias</t>
+    </r>
+  </si>
+  <si>
+    <t>Ansible Playbook</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  [Indicates its a yml file]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>update cache | Install nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  [Tells the name of the play]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hosts: all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;   [Tells ansible to perform the tasks in all hosts which are in inventory.ini]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>become: true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  [Tell ansible to switch to sudo user]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tasks:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt;&gt;  [Lists of tasks to be performed]</t>
     </r>
   </si>
 </sst>
@@ -2489,7 +2627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2645,6 +2783,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2838,6 +2982,50 @@
         <a:xfrm>
           <a:off x="3290888" y="6691312"/>
           <a:ext cx="2248181" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166671</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595296</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1848157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9C352A-4FA5-1412-F1A8-E70419F2225A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="166671" y="10810876"/>
+          <a:ext cx="2586038" cy="1791006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE990C4B-3E94-4796-8BC6-D81EF05678C5}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3886,7 +4074,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3997,7 +4185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC4F5D-B820-44BA-86C7-D02427542BE0}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4275,16 +4463,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF488BB-F33B-465B-9A85-E4575B1FF101}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.19921875" customWidth="1"/>
-    <col min="2" max="2" width="68.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.46484375" customWidth="1"/>
     <col min="3" max="3" width="70.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4552,8 +4740,24 @@
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
     </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+    </row>
+    <row r="31" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -4563,6 +4767,7 @@
     <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Devops Commands.xlsx
+++ b/Devops Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CE53F6-E7D6-4C40-B85C-0E0052922CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133CF3ED-3AF6-465B-B3CC-881EABCA21D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{17903FFA-095F-4719-859A-9B63398CF432}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="258">
   <si>
     <t>ls</t>
   </si>
@@ -2275,6 +2275,9 @@
       </rPr>
       <t xml:space="preserve">  &gt;&gt;  [Lists of tasks to be performed]</t>
     </r>
+  </si>
+  <si>
+    <t>Ansible Roles</t>
   </si>
 </sst>
 </file>
@@ -2757,6 +2760,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2772,23 +2790,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4463,7 +4466,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF488BB-F33B-465B-9A85-E4575B1FF101}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
@@ -4477,21 +4480,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
@@ -4578,11 +4581,11 @@
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="33" t="s">
@@ -4638,11 +4641,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="M17" t="s">
         <v>197</v>
       </c>
@@ -4717,45 +4720,53 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="M26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
     </row>
     <row r="28" spans="1:13" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
     </row>
     <row r="31" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A28:C28"/>
